--- a/write/tables/tb_survival_nolimits__sims100.xlsx
+++ b/write/tables/tb_survival_nolimits__sims100.xlsx
@@ -9,7 +9,7 @@
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
-    <workbookView xWindow="0" yWindow="460" windowWidth="14360" windowHeight="17460" activeTab="1"/>
+    <workbookView minimized="1" xWindow="28800" yWindow="-15140" windowWidth="10500" windowHeight="16560" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="readme" sheetId="6" r:id="rId1"/>
@@ -759,6 +759,12 @@
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -770,12 +776,6 @@
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="74">
@@ -1152,10 +1152,10 @@
   <sheetData>
     <row r="5" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B5" s="1"/>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="31" t="s">
         <v>86</v>
       </c>
-      <c r="D5" s="29"/>
+      <c r="D5" s="31"/>
       <c r="E5" s="2" t="s">
         <v>60</v>
       </c>
@@ -1172,11 +1172,11 @@
       <c r="B7" s="6" t="s">
         <v>71</v>
       </c>
-      <c r="C7" s="31" t="s">
+      <c r="C7" s="33" t="s">
         <v>67</v>
       </c>
-      <c r="D7" s="31"/>
-      <c r="E7" s="31"/>
+      <c r="D7" s="33"/>
+      <c r="E7" s="33"/>
     </row>
     <row r="8" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B8" s="6" t="s">
@@ -1258,11 +1258,11 @@
       <c r="B13" s="17" t="s">
         <v>77</v>
       </c>
-      <c r="C13" s="28" t="s">
+      <c r="C13" s="30" t="s">
         <v>67</v>
       </c>
-      <c r="D13" s="28"/>
-      <c r="E13" s="28"/>
+      <c r="D13" s="30"/>
+      <c r="E13" s="30"/>
     </row>
     <row r="14" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B14" s="17" t="s">
@@ -1396,7 +1396,7 @@
         <v>84</v>
       </c>
       <c r="C22" s="19"/>
-      <c r="D22" s="32"/>
+      <c r="D22" s="28"/>
       <c r="E22" s="19"/>
     </row>
     <row r="23" spans="2:5" x14ac:dyDescent="0.2">
@@ -1407,7 +1407,7 @@
         <f>fmt.subgrp!B12</f>
         <v>1.43</v>
       </c>
-      <c r="D23" s="32" t="str">
+      <c r="D23" s="28" t="str">
         <f>fmt.subgrp!C12</f>
         <v>(1.14--1.81)</v>
       </c>
@@ -1424,7 +1424,7 @@
         <f>fmt.subgrp!B19</f>
         <v>0.76</v>
       </c>
-      <c r="D24" s="32" t="str">
+      <c r="D24" s="28" t="str">
         <f>fmt.subgrp!C19</f>
         <v>(0.50--1.03)</v>
       </c>
@@ -1510,11 +1510,11 @@
       <c r="B31" s="8" t="s">
         <v>66</v>
       </c>
-      <c r="C31" s="30" t="s">
+      <c r="C31" s="32" t="s">
         <v>67</v>
       </c>
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
+      <c r="D31" s="32"/>
+      <c r="E31" s="32"/>
     </row>
     <row r="32" spans="2:5" x14ac:dyDescent="0.2">
       <c r="B32" s="8" t="s">
@@ -1602,7 +1602,7 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:1" ht="131" x14ac:dyDescent="0.2">
-      <c r="A1" s="33" t="s">
+      <c r="A1" s="29" t="s">
         <v>159</v>
       </c>
     </row>
@@ -1685,7 +1685,9 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J20"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G17" sqref="G17"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <sheetData>
